--- a/Employee_Reports28/Kasansula Francis Kiwanuka Q0527.xlsx
+++ b/Employee_Reports28/Kasansula Francis Kiwanuka Q0527.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,10 +28,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="4">
@@ -77,7 +74,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -574,11 +571,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -623,11 +620,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -672,11 +669,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -721,11 +718,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -736,99 +733,99 @@
       <c r="K6" s="3" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>LOTO (SOPs)</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>ELECTRICAL SAFETY</t>
         </is>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="4" t="n">
         <v/>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>02-Oct-2024</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>02-Oct-2025</t>
         </is>
       </c>
-      <c r="H7" s="3" t="n">
-        <v>23</v>
-      </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>08-Sep-2025</t>
-        </is>
-      </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K7" s="3" t="inlineStr"/>
+      <c r="H7" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>16-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>NOT VALID</t>
+        </is>
+      </c>
+      <c r="K7" s="4" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="4" t="n">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Equipment Operation Procedure
 (SOP-031) (SOPs)</t>
         </is>
       </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="C8" s="4" t="inlineStr">
         <is>
           <t>CARGO</t>
         </is>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="4" t="n">
         <v/>
       </c>
-      <c r="E8" s="3" t="inlineStr">
+      <c r="E8" s="4" t="inlineStr">
         <is>
           <t>SOP</t>
         </is>
       </c>
-      <c r="F8" s="3" t="inlineStr">
+      <c r="F8" s="4" t="inlineStr">
         <is>
           <t>13-Oct-2024</t>
         </is>
       </c>
-      <c r="G8" s="3" t="inlineStr">
+      <c r="G8" s="4" t="inlineStr">
         <is>
           <t>13-Oct-2025</t>
         </is>
       </c>
-      <c r="H8" s="3" t="n">
-        <v>34</v>
-      </c>
-      <c r="I8" s="3" t="inlineStr">
-        <is>
-          <t>08-Sep-2025</t>
-        </is>
-      </c>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K8" s="3" t="inlineStr"/>
+      <c r="H8" s="4" t="n">
+        <v>26</v>
+      </c>
+      <c r="I8" s="4" t="inlineStr">
+        <is>
+          <t>16-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J8" s="4" t="inlineStr">
+        <is>
+          <t>NOT VALID</t>
+        </is>
+      </c>
+      <c r="K8" s="4" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="n">
@@ -863,11 +860,11 @@
         </is>
       </c>
       <c r="H9" s="4" t="n">
-        <v>-21</v>
+        <v>-29</v>
       </c>
       <c r="I9" s="4" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J9" s="4" t="inlineStr">
@@ -900,11 +897,11 @@
         </is>
       </c>
       <c r="H10" s="4" t="n">
-        <v>-21</v>
+        <v>-29</v>
       </c>
       <c r="I10" s="4" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J10" s="4" t="inlineStr">
@@ -947,11 +944,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -987,7 +984,7 @@
     <col width="24" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="44" customWidth="1" min="5" max="5"/>
+    <col width="15" customWidth="1" min="5" max="5"/>
     <col width="2" customWidth="1" min="6" max="6"/>
     <col width="2" customWidth="1" min="7" max="7"/>
   </cols>
@@ -1047,7 +1044,7 @@
       </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>Kindly redo your exam the exam is outdated</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F3" s="3" t="n"/>
@@ -1072,7 +1069,7 @@
       </c>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F4" s="3" t="n"/>
@@ -1097,7 +1094,7 @@
       </c>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F5" s="3" t="n"/>
@@ -1122,7 +1119,7 @@
       </c>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F6" s="3" t="n"/>
@@ -1147,7 +1144,7 @@
       </c>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>date is valid</t>
         </is>
       </c>
       <c r="F7" s="3" t="n"/>
